--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>表名</t>
   </si>
@@ -95,6 +95,117 @@
   </si>
   <si>
     <t>商品名称</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>用户手机号码</t>
+  </si>
+  <si>
+    <t>user_pwd</t>
+  </si>
+  <si>
+    <t>登录密码</t>
+  </si>
+  <si>
+    <t>user_qq</t>
+  </si>
+  <si>
+    <t>关联QQ号码</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>用户邮箱</t>
+  </si>
+  <si>
+    <t>user_address</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>用户收货地址</t>
+  </si>
+  <si>
+    <t>user_img</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>user_taobao</t>
+  </si>
+  <si>
+    <t>用户天猫账号</t>
+  </si>
+  <si>
+    <t>innodb</t>
+  </si>
+  <si>
+    <t>全文索引</t>
+  </si>
+  <si>
+    <t>goods_desc</t>
+  </si>
+  <si>
+    <t>商品详细介绍</t>
+  </si>
+  <si>
+    <t>goods_price</t>
+  </si>
+  <si>
+    <t>decimai</t>
+  </si>
+  <si>
+    <t>商品价格</t>
+  </si>
+  <si>
+    <t>goods_cate</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+  </si>
+  <si>
+    <t>goods_stock</t>
+  </si>
+  <si>
+    <t>商品库存</t>
+  </si>
+  <si>
+    <t>goods_order</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>goods_num</t>
+  </si>
+  <si>
+    <t>热度</t>
+  </si>
+  <si>
+    <t>goods_brand</t>
+  </si>
+  <si>
+    <t>商品品牌</t>
+  </si>
+  <si>
+    <t>goods_weight</t>
+  </si>
+  <si>
+    <t>商品重量</t>
+  </si>
+  <si>
+    <t>is_show</t>
+  </si>
+  <si>
+    <t>是否上架</t>
   </si>
 </sst>
 </file>
@@ -102,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -131,6 +242,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -140,14 +333,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,114 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,181 +401,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +604,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -508,11 +628,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,8 +657,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,41 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,16 +692,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,7 +719,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,121 +728,121 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,13 +1179,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1326,48 +1437,326 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>32</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>200</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>0.001</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>表名</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>是否上架</t>
+  </si>
+  <si>
+    <t>goods_img</t>
+  </si>
+  <si>
+    <t>商品图片</t>
+  </si>
+  <si>
+    <t>goods_collection</t>
+  </si>
+  <si>
+    <t>收藏次数</t>
+  </si>
+  <si>
+    <t>goods_evaluate</t>
+  </si>
+  <si>
+    <t>评价ID</t>
   </si>
 </sst>
 </file>
@@ -213,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -236,28 +254,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +352,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,29 +367,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,71 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,187 +413,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,16 +632,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,37 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,151 +708,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelCol="7"/>
@@ -1748,6 +1766,48 @@
       </c>
       <c r="G35" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
